--- a/results/celltype-expressed_descriptive_stats.xlsx
+++ b/results/celltype-expressed_descriptive_stats.xlsx
@@ -52,7 +52,7 @@
     <t>pig</t>
   </si>
   <si>
-    <t>avg_93species</t>
+    <t>avg_92species</t>
   </si>
   <si>
     <t>neuron</t>
